--- a/biology/Botanique/Blanc_de_blancs/Blanc_de_blancs.xlsx
+++ b/biology/Botanique/Blanc_de_blancs/Blanc_de_blancs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Blanc de Blancs, ou Blanc de Blanc, est un vin effervescent produit exclusivement avec des raisins blancs[1]. 
-Cette dénomination tient son origine dans la couleur du champagne (blanc) obtenue à partir de raisins blancs, généralement du chardonnay[2]. Ce cépage est majoritairement présent dans la région champenoise de la côte des Blancs[2] au sol calcaire. Reconnaissables à leurs arômes, ces champagnes le sont également par la couleur de leur robe cristalline jaune pâle, notamment lorsqu'ils sont jeunes[3]. En vieillissant, la robe prend des teintes de couleur or.   
-D'autres cépages utilisés dans l'élaboration du Champagne peuvent permettre d'utiliser la dénomination « blanc de blancs » dès lors que l'assemblage est exclusivement constitué de cépages blancs : petit meslier, arbane et pinot blanc sont également autorisés par le cahier des charges de l'AOC Champagne[4].    
-Le terme de « blanc de blancs » peut être utilisé pour d'autres vins mousseux répondant aux mêmes caractéristiques[1].     
-A contrario, le blanc de noirs désigne un champagne blanc produit avec du raisin noir exclusivement. En Champagne, on utilise le pinot noir et le pinot meunier ou les deux en assemblage[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Blanc de Blancs, ou Blanc de Blanc, est un vin effervescent produit exclusivement avec des raisins blancs. 
+Cette dénomination tient son origine dans la couleur du champagne (blanc) obtenue à partir de raisins blancs, généralement du chardonnay. Ce cépage est majoritairement présent dans la région champenoise de la côte des Blancs au sol calcaire. Reconnaissables à leurs arômes, ces champagnes le sont également par la couleur de leur robe cristalline jaune pâle, notamment lorsqu'ils sont jeunes. En vieillissant, la robe prend des teintes de couleur or.   
+D'autres cépages utilisés dans l'élaboration du Champagne peuvent permettre d'utiliser la dénomination « blanc de blancs » dès lors que l'assemblage est exclusivement constitué de cépages blancs : petit meslier, arbane et pinot blanc sont également autorisés par le cahier des charges de l'AOC Champagne.    
+Le terme de « blanc de blancs » peut être utilisé pour d'autres vins mousseux répondant aux mêmes caractéristiques.     
+A contrario, le blanc de noirs désigne un champagne blanc produit avec du raisin noir exclusivement. En Champagne, on utilise le pinot noir et le pinot meunier ou les deux en assemblage.
 </t>
         </is>
       </c>
